--- a/scripts/templates/cdisc_sdtm_dataset_specializations_latest_template.xlsx
+++ b/scripts/templates/cdisc_sdtm_dataset_specializations_latest_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\scripts\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0372A3-9DBC-4CFC-8EA5-34CED55472D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3D43AA-D5C3-4499-896E-3ABCA91110C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1000,13 +1000,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
